--- a/reports/shift_report_cashier_20250726_014204.xlsx
+++ b/reports/shift_report_cashier_20250726_014204.xlsx
@@ -574,7 +574,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Report Generated: 2025-07-27 18:06:41</t>
+          <t>Report Generated: 2025-07-27 18:19:11</t>
         </is>
       </c>
     </row>
